--- a/AnaliseConcorrencia.xlsx
+++ b/AnaliseConcorrencia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victoria.a.camargo\Documents\faculdade\4 Semestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\OneDrive\Área de Trabalho\Sollute V2\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCA74C8-CB33-4B76-9369-388E97996B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615CFC47-FBFF-45BD-BD7B-E8CE3E44DD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AnaliseConcorrencia" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
   <si>
     <t>Sensio ERP</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Sollute</t>
-  </si>
-  <si>
-    <t>Sim*</t>
   </si>
   <si>
     <t>*Desejavel (face, wpp, insta)</t>
@@ -154,10 +151,30 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -167,23 +184,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -197,6 +206,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -485,21 +515,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -515,13 +544,13 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="14"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="10"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -529,7 +558,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -538,7 +567,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -547,24 +576,24 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="2"/>
@@ -575,24 +604,24 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="C6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="2"/>
@@ -603,24 +632,24 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="F7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="2"/>
@@ -631,24 +660,24 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="C8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="2"/>
@@ -659,24 +688,24 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="C9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="2"/>
@@ -687,24 +716,24 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="C10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="2"/>
@@ -715,24 +744,24 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="C11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="8" t="s">
+      <c r="F11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="2"/>
@@ -743,24 +772,24 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="C12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="2"/>
@@ -771,24 +800,24 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="C13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="2"/>
@@ -799,24 +828,24 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="C14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="2"/>
@@ -827,24 +856,24 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="C15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="6" t="s">
+      <c r="F15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="2"/>
@@ -855,25 +884,25 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>21</v>
+      <c r="C16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -883,24 +912,24 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="8" t="s">
+      <c r="C17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H17" s="2"/>
@@ -911,24 +940,24 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="B18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="6" t="s">
+      <c r="F18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="2"/>
@@ -939,28 +968,28 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B19" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="8" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="6" t="s">
+      <c r="F19" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -968,16 +997,16 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="11"/>
+      <c r="G21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
